--- a/indeks-standar-pencemaran-udara-(ispu)-tahun-2022-(1766459379253).xlsx
+++ b/indeks-standar-pencemaran-udara-(ispu)-tahun-2022-(1766459379253).xlsx
@@ -1759,7 +1759,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1767,7 +1767,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indeks-standar-pencemaran-udara-(ispu)-tahun-2022-(1766459379253).xlsx
+++ b/indeks-standar-pencemaran-udara-(ispu)-tahun-2022-(1766459379253).xlsx
@@ -1,42 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Unknown Author</author>
+    <author>tc={00410088-00A4-49F6-9BBF-000000400097}</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" xr:uid="{00410088-00A4-49F6-9BBF-000000400097}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">======
+          <t xml:space="preserve">Unknown Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+======
 ID#AAABx8ftWik
 20230801145 Ase Ananda Putra    (2025-12-24 01:35:33)
-why man, this date is so weird?!</t>
+why man, this date is so weird?!
+</t>
         </r>
       </text>
     </comment>
@@ -45,1667 +51,1646 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="539">
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lokasi_spku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">periode_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanggal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM2,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEDANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKI4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>categori</t>
+  </si>
+  <si>
+    <t>lokasi_spku</t>
+  </si>
+  <si>
+    <t>periode_data</t>
+  </si>
+  <si>
+    <t>tanggal</t>
+  </si>
+  <si>
+    <t>pm10</t>
+  </si>
+  <si>
+    <t>pm25</t>
+  </si>
+  <si>
+    <t>so2</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>no2</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>PM2,5</t>
+  </si>
+  <si>
+    <t>SEDANG</t>
+  </si>
+  <si>
+    <t>DKI4</t>
+  </si>
+  <si>
+    <t>202212</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve">TIDAK SEHAT</t>
   </si>
   <si>
-    <t xml:space="preserve">202207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKI2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKI5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-07</t>
+    <t>202207</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>DKI2</t>
+  </si>
+  <si>
+    <t>2022-07-03</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2022-07-02</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>202208</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>DKI5</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2022-08-21</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2022-08-14</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>2022-08-13</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2022-08-12</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>2022-08-11</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-08-07</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>2022-08-06</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-04</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>2022-08-02</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>202209</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-09-29</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2022-09-27</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-09-25</t>
+  </si>
+  <si>
+    <t>2022-09-24</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2022-09-20</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2022-09-18</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2022-09-17</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2022-09-16</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>DKI1</t>
+  </si>
+  <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-09-11</t>
+  </si>
+  <si>
+    <t>2022-09-10</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-04</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2022-09-03</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>202210</t>
+  </si>
+  <si>
+    <t>2022-10-26</t>
+  </si>
+  <si>
+    <t>2022-10-25</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2022-10-23</t>
+  </si>
+  <si>
+    <t>2022-10-22</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>2022-10-20</t>
+  </si>
+  <si>
+    <t>2022-10-19</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
+    <t>2022-10-15</t>
+  </si>
+  <si>
+    <t>2022-10-14</t>
+  </si>
+  <si>
+    <t>2022-10-13</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-10-09</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2022-10-08</t>
+  </si>
+  <si>
+    <t>2022-10-07</t>
+  </si>
+  <si>
+    <t>2022-10-06</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>2022-10-04</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-02</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>2022-10-29</t>
+  </si>
+  <si>
+    <t>2022-10-30</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>202211</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>2022-11-02</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>2022-11-03</t>
+  </si>
+  <si>
+    <t>2022-11-04</t>
+  </si>
+  <si>
+    <t>2022-11-05</t>
+  </si>
+  <si>
+    <t>DKI3</t>
+  </si>
+  <si>
+    <t>2022-11-06</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>2022-11-08</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>2022-11-12</t>
+  </si>
+  <si>
+    <t>2022-11-13</t>
+  </si>
+  <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
+    <t>2022-11-15</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>2022-11-17</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>2022-11-20</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>2022-11-25</t>
+  </si>
+  <si>
+    <t>2022-11-26</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-11-29</t>
+  </si>
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-06</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2022-12-17</t>
+  </si>
+  <si>
+    <t>2022-12-18</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2022-12-24</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>202201</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-01-08</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
+  </si>
+  <si>
+    <t>202202</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>BAIK</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-01-30</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-01-26</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2022-01-20</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>202204</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>202203</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-03-26</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2022-03-20</t>
+  </si>
+  <si>
+    <t>2022-03-19</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-13</t>
+  </si>
+  <si>
+    <t>2022-03-12</t>
+  </si>
+  <si>
+    <t>2022-03-11</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>2022-03-08</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-06</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>202205</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>202206</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
+    <t>2022-04-15</t>
+  </si>
+  <si>
+    <t>2022-04-14</t>
+  </si>
+  <si>
+    <t>2022-04-13</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>2022-04-09</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2022-04-02</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>2022-06-25</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-06-11</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>2022-07-30</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>2022-07-26</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-07-24</t>
+  </si>
+  <si>
+    <t>2022-07-23</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
+  </si>
+  <si>
+    <t>2022-07-20</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>2022-07-19</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-07-17</t>
+  </si>
+  <si>
+    <t>2022-07-16</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-10</t>
+  </si>
+  <si>
+    <t>2022-07-09</t>
+  </si>
+  <si>
+    <t>2022-07-08</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1717,126 +1702,406 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Unknown Author" id="{1CB32660-94A1-3446-75D0-BA0F73801DEE}"/>
+</personList>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1863,7 +2128,6 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1887,7 +2151,6 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1947,28 +2210,40 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" personId="{1CB32660-94A1-3446-75D0-BA0F73801DEE}" id="{00410088-00A4-49F6-9BBF-000000400097}" done="1">
+    <text xml:space="preserve">======
+ID#AAABx8ftWik
+20230801145 Ase Ananda Putra    (2025-12-24 01:35:33)
+why man, this date is so weird?!
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2282,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2295,7 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>44926</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2046,7 +2321,7 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2085,7 +2360,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2124,7 +2399,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2163,7 +2438,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2202,7 +2477,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2516,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2555,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2319,7 +2594,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2358,7 +2633,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2672,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2711,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2475,7 +2750,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2789,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="15">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2828,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2592,7 +2867,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2631,7 +2906,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="15">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -2670,7 +2945,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="15">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
@@ -2709,7 +2984,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="15">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2748,7 +3023,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2787,7 +3062,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2826,7 +3101,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2865,7 +3140,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -2904,7 +3179,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2943,7 +3218,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2982,7 +3257,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3296,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -3060,7 +3335,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
@@ -3099,7 +3374,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -3138,7 +3413,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3177,7 +3452,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -3216,7 +3491,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -3255,7 +3530,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3569,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -3333,7 +3608,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3647,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -3411,7 +3686,7 @@
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -3450,7 +3725,7 @@
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -3489,7 +3764,7 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -3528,7 +3803,7 @@
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -3567,7 +3842,7 @@
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -3606,7 +3881,7 @@
       </c>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -3645,7 +3920,7 @@
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -3684,7 +3959,7 @@
       </c>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -3723,7 +3998,7 @@
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -3762,7 +4037,7 @@
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -3801,7 +4076,7 @@
       </c>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -3840,7 +4115,7 @@
       </c>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -3879,7 +4154,7 @@
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -3918,7 +4193,7 @@
       </c>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -3957,7 +4232,7 @@
       </c>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -3996,7 +4271,7 @@
       </c>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4310,7 @@
       </c>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +4349,7 @@
       </c>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -4113,7 +4388,7 @@
       </c>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -4152,7 +4427,7 @@
       </c>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -4191,7 +4466,7 @@
       </c>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -4230,7 +4505,7 @@
       </c>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -4269,7 +4544,7 @@
       </c>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -4308,7 +4583,7 @@
       </c>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -4347,7 +4622,7 @@
       </c>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -4386,7 +4661,7 @@
       </c>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -4425,7 +4700,7 @@
       </c>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -4464,7 +4739,7 @@
       </c>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -4503,7 +4778,7 @@
       </c>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -4542,7 +4817,7 @@
       </c>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -4581,7 +4856,7 @@
       </c>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -4620,7 +4895,7 @@
       </c>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -4659,7 +4934,7 @@
       </c>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>201</v>
       </c>
@@ -4698,7 +4973,7 @@
       </c>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
@@ -4737,7 +5012,7 @@
       </c>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -4776,7 +5051,7 @@
       </c>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -4815,7 +5090,7 @@
       </c>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -4854,7 +5129,7 @@
       </c>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -4893,7 +5168,7 @@
       </c>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -4932,7 +5207,7 @@
       </c>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -4971,7 +5246,7 @@
       </c>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -5010,7 +5285,7 @@
       </c>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -5049,7 +5324,7 @@
       </c>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -5088,7 +5363,7 @@
       </c>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -5127,7 +5402,7 @@
       </c>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -5166,7 +5441,7 @@
       </c>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -5205,7 +5480,7 @@
       </c>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -5244,7 +5519,7 @@
       </c>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -5283,7 +5558,7 @@
       </c>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -5322,7 +5597,7 @@
       </c>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -5361,7 +5636,7 @@
       </c>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -5400,7 +5675,7 @@
       </c>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -5439,7 +5714,7 @@
       </c>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -5478,7 +5753,7 @@
       </c>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -5517,7 +5792,7 @@
       </c>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -5556,7 +5831,7 @@
       </c>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -5595,7 +5870,7 @@
       </c>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -5634,7 +5909,7 @@
       </c>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -5673,7 +5948,7 @@
       </c>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -5712,7 +5987,7 @@
       </c>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +6026,7 @@
       </c>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -5790,7 +6065,7 @@
       </c>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -5829,7 +6104,7 @@
       </c>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -5868,7 +6143,7 @@
       </c>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -5907,7 +6182,7 @@
       </c>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -5946,7 +6221,7 @@
       </c>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
@@ -5985,7 +6260,7 @@
       </c>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -6024,7 +6299,7 @@
       </c>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -6063,7 +6338,7 @@
       </c>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -6102,7 +6377,7 @@
       </c>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -6141,7 +6416,7 @@
       </c>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -6180,7 +6455,7 @@
       </c>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>12</v>
       </c>
@@ -6219,7 +6494,7 @@
       </c>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
@@ -6258,7 +6533,7 @@
       </c>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -6297,7 +6572,7 @@
       </c>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -6336,7 +6611,7 @@
       </c>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -6375,7 +6650,7 @@
       </c>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
@@ -6414,7 +6689,7 @@
       </c>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>12</v>
       </c>
@@ -6453,7 +6728,7 @@
       </c>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
@@ -6492,7 +6767,7 @@
       </c>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -6531,7 +6806,7 @@
       </c>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -6570,7 +6845,7 @@
       </c>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>12</v>
       </c>
@@ -6609,7 +6884,7 @@
       </c>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -6648,7 +6923,7 @@
       </c>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>12</v>
       </c>
@@ -6687,7 +6962,7 @@
       </c>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>12</v>
       </c>
@@ -6726,7 +7001,7 @@
       </c>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -6765,7 +7040,7 @@
       </c>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -6804,7 +7079,7 @@
       </c>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -6843,7 +7118,7 @@
       </c>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -6882,7 +7157,7 @@
       </c>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
@@ -6921,7 +7196,7 @@
       </c>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>12</v>
       </c>
@@ -6960,7 +7235,7 @@
       </c>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>12</v>
       </c>
@@ -6999,7 +7274,7 @@
       </c>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>12</v>
       </c>
@@ -7038,7 +7313,7 @@
       </c>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>12</v>
       </c>
@@ -7077,7 +7352,7 @@
       </c>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -7116,7 +7391,7 @@
       </c>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -7155,7 +7430,7 @@
       </c>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -7194,7 +7469,7 @@
       </c>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>12</v>
       </c>
@@ -7233,7 +7508,7 @@
       </c>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -7272,7 +7547,7 @@
       </c>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -7311,7 +7586,7 @@
       </c>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -7350,7 +7625,7 @@
       </c>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
@@ -7389,7 +7664,7 @@
       </c>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>12</v>
       </c>
@@ -7428,7 +7703,7 @@
       </c>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>12</v>
       </c>
@@ -7467,7 +7742,7 @@
       </c>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -7506,7 +7781,7 @@
       </c>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>12</v>
       </c>
@@ -7545,7 +7820,7 @@
       </c>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>12</v>
       </c>
@@ -7584,7 +7859,7 @@
       </c>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>12</v>
       </c>
@@ -7623,7 +7898,7 @@
       </c>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -7662,7 +7937,7 @@
       </c>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -7701,7 +7976,7 @@
       </c>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -7740,7 +8015,7 @@
       </c>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
@@ -7779,7 +8054,7 @@
       </c>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -7818,7 +8093,7 @@
       </c>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -7857,7 +8132,7 @@
       </c>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -7896,7 +8171,7 @@
       </c>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>201</v>
       </c>
@@ -7935,7 +8210,7 @@
       </c>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -7974,7 +8249,7 @@
       </c>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>201</v>
       </c>
@@ -8013,7 +8288,7 @@
       </c>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -8052,7 +8327,7 @@
       </c>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>201</v>
       </c>
@@ -8091,7 +8366,7 @@
       </c>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>12</v>
       </c>
@@ -8130,7 +8405,7 @@
       </c>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>201</v>
       </c>
@@ -8169,7 +8444,7 @@
       </c>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
@@ -8208,7 +8483,7 @@
       </c>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
@@ -8247,7 +8522,7 @@
       </c>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -8286,7 +8561,7 @@
       </c>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -8325,7 +8600,7 @@
       </c>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
@@ -8364,7 +8639,7 @@
       </c>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>12</v>
       </c>
@@ -8403,7 +8678,7 @@
       </c>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
@@ -8442,7 +8717,7 @@
       </c>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
@@ -8481,7 +8756,7 @@
       </c>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -8520,7 +8795,7 @@
       </c>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>12</v>
       </c>
@@ -8559,7 +8834,7 @@
       </c>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>12</v>
       </c>
@@ -8598,7 +8873,7 @@
       </c>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>12</v>
       </c>
@@ -8637,7 +8912,7 @@
       </c>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
@@ -8676,7 +8951,7 @@
       </c>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>12</v>
       </c>
@@ -8715,7 +8990,7 @@
       </c>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
@@ -8754,7 +9029,7 @@
       </c>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>12</v>
       </c>
@@ -8793,7 +9068,7 @@
       </c>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>12</v>
       </c>
@@ -8832,7 +9107,7 @@
       </c>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>12</v>
       </c>
@@ -8871,7 +9146,7 @@
       </c>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>12</v>
       </c>
@@ -8910,7 +9185,7 @@
       </c>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>12</v>
       </c>
@@ -8949,7 +9224,7 @@
       </c>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>12</v>
       </c>
@@ -8988,7 +9263,7 @@
       </c>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>12</v>
       </c>
@@ -9027,7 +9302,7 @@
       </c>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>98</v>
       </c>
@@ -9066,7 +9341,7 @@
       </c>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>12</v>
       </c>
@@ -9105,7 +9380,7 @@
       </c>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>12</v>
       </c>
@@ -9144,7 +9419,7 @@
       </c>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>12</v>
       </c>
@@ -9183,7 +9458,7 @@
       </c>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>12</v>
       </c>
@@ -9222,7 +9497,7 @@
       </c>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>12</v>
       </c>
@@ -9261,7 +9536,7 @@
       </c>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>12</v>
       </c>
@@ -9300,7 +9575,7 @@
       </c>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>98</v>
       </c>
@@ -9339,7 +9614,7 @@
       </c>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>12</v>
       </c>
@@ -9378,7 +9653,7 @@
       </c>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>12</v>
       </c>
@@ -9417,7 +9692,7 @@
       </c>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>12</v>
       </c>
@@ -9456,7 +9731,7 @@
       </c>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -9495,7 +9770,7 @@
       </c>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>12</v>
       </c>
@@ -9534,7 +9809,7 @@
       </c>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>12</v>
       </c>
@@ -9573,7 +9848,7 @@
       </c>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>98</v>
       </c>
@@ -9612,7 +9887,7 @@
       </c>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>12</v>
       </c>
@@ -9651,7 +9926,7 @@
       </c>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>12</v>
       </c>
@@ -9690,7 +9965,7 @@
       </c>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>12</v>
       </c>
@@ -9729,7 +10004,7 @@
       </c>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>12</v>
       </c>
@@ -9768,7 +10043,7 @@
       </c>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>12</v>
       </c>
@@ -9807,7 +10082,7 @@
       </c>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>98</v>
       </c>
@@ -9846,7 +10121,7 @@
       </c>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>98</v>
       </c>
@@ -9885,7 +10160,7 @@
       </c>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>12</v>
       </c>
@@ -9924,7 +10199,7 @@
       </c>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -9963,7 +10238,7 @@
       </c>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>12</v>
       </c>
@@ -10002,7 +10277,7 @@
       </c>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>12</v>
       </c>
@@ -10041,7 +10316,7 @@
       </c>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>12</v>
       </c>
@@ -10080,7 +10355,7 @@
       </c>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>98</v>
       </c>
@@ -10119,7 +10394,7 @@
       </c>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>12</v>
       </c>
@@ -10158,7 +10433,7 @@
       </c>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>12</v>
       </c>
@@ -10197,7 +10472,7 @@
       </c>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>12</v>
       </c>
@@ -10236,7 +10511,7 @@
       </c>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>12</v>
       </c>
@@ -10275,7 +10550,7 @@
       </c>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>12</v>
       </c>
@@ -10314,7 +10589,7 @@
       </c>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>12</v>
       </c>
@@ -10353,7 +10628,7 @@
       </c>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>12</v>
       </c>
@@ -10392,7 +10667,7 @@
       </c>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>12</v>
       </c>
@@ -10431,7 +10706,7 @@
       </c>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>12</v>
       </c>
@@ -10470,7 +10745,7 @@
       </c>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>12</v>
       </c>
@@ -10509,7 +10784,7 @@
       </c>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>12</v>
       </c>
@@ -10548,7 +10823,7 @@
       </c>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>98</v>
       </c>
@@ -10587,7 +10862,7 @@
       </c>
       <c r="M221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>12</v>
       </c>
@@ -10626,7 +10901,7 @@
       </c>
       <c r="M222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>12</v>
       </c>
@@ -10665,7 +10940,7 @@
       </c>
       <c r="M223" s="2"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>98</v>
       </c>
@@ -10704,7 +10979,7 @@
       </c>
       <c r="M224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>201</v>
       </c>
@@ -10743,7 +11018,7 @@
       </c>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>12</v>
       </c>
@@ -10782,7 +11057,7 @@
       </c>
       <c r="M226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>12</v>
       </c>
@@ -10821,7 +11096,7 @@
       </c>
       <c r="M227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>12</v>
       </c>
@@ -10860,7 +11135,7 @@
       </c>
       <c r="M228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>12</v>
       </c>
@@ -10899,7 +11174,7 @@
       </c>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>12</v>
       </c>
@@ -10938,7 +11213,7 @@
       </c>
       <c r="M230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>12</v>
       </c>
@@ -10977,7 +11252,7 @@
       </c>
       <c r="M231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>12</v>
       </c>
@@ -11016,7 +11291,7 @@
       </c>
       <c r="M232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -11055,7 +11330,7 @@
       </c>
       <c r="M233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>12</v>
       </c>
@@ -11094,7 +11369,7 @@
       </c>
       <c r="M234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>12</v>
       </c>
@@ -11133,7 +11408,7 @@
       </c>
       <c r="M235" s="2"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>12</v>
       </c>
@@ -11172,7 +11447,7 @@
       </c>
       <c r="M236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>12</v>
       </c>
@@ -11211,7 +11486,7 @@
       </c>
       <c r="M237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>12</v>
       </c>
@@ -11250,7 +11525,7 @@
       </c>
       <c r="M238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>12</v>
       </c>
@@ -11289,7 +11564,7 @@
       </c>
       <c r="M239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>12</v>
       </c>
@@ -11328,7 +11603,7 @@
       </c>
       <c r="M240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>12</v>
       </c>
@@ -11367,7 +11642,7 @@
       </c>
       <c r="M241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -11406,7 +11681,7 @@
       </c>
       <c r="M242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>12</v>
       </c>
@@ -11445,7 +11720,7 @@
       </c>
       <c r="M243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>12</v>
       </c>
@@ -11484,7 +11759,7 @@
       </c>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>12</v>
       </c>
@@ -11523,7 +11798,7 @@
       </c>
       <c r="M245" s="2"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>12</v>
       </c>
@@ -11562,7 +11837,7 @@
       </c>
       <c r="M246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>12</v>
       </c>
@@ -11601,7 +11876,7 @@
       </c>
       <c r="M247" s="2"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
@@ -11640,7 +11915,7 @@
       </c>
       <c r="M248" s="2"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>12</v>
       </c>
@@ -11679,7 +11954,7 @@
       </c>
       <c r="M249" s="2"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>12</v>
       </c>
@@ -11718,7 +11993,7 @@
       </c>
       <c r="M250" s="2"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>12</v>
       </c>
@@ -11757,7 +12032,7 @@
       </c>
       <c r="M251" s="2"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>12</v>
       </c>
@@ -11796,7 +12071,7 @@
       </c>
       <c r="M252" s="2"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
@@ -11835,7 +12110,7 @@
       </c>
       <c r="M253" s="2"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
@@ -11874,7 +12149,7 @@
       </c>
       <c r="M254" s="2"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>12</v>
       </c>
@@ -11913,7 +12188,7 @@
       </c>
       <c r="M255" s="2"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>12</v>
       </c>
@@ -11952,7 +12227,7 @@
       </c>
       <c r="M256" s="2"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -11991,7 +12266,7 @@
       </c>
       <c r="M257" s="2"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -12030,7 +12305,7 @@
       </c>
       <c r="M258" s="2"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>12</v>
       </c>
@@ -12069,7 +12344,7 @@
       </c>
       <c r="M259" s="2"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>12</v>
       </c>
@@ -12108,7 +12383,7 @@
       </c>
       <c r="M260" s="2"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>12</v>
       </c>
@@ -12147,7 +12422,7 @@
       </c>
       <c r="M261" s="2"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>12</v>
       </c>
@@ -12186,7 +12461,7 @@
       </c>
       <c r="M262" s="2"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>12</v>
       </c>
@@ -12225,7 +12500,7 @@
       </c>
       <c r="M263" s="2"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -12264,7 +12539,7 @@
       </c>
       <c r="M264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -12303,7 +12578,7 @@
       </c>
       <c r="M265" s="2"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>12</v>
       </c>
@@ -12342,7 +12617,7 @@
       </c>
       <c r="M266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
@@ -12381,7 +12656,7 @@
       </c>
       <c r="M267" s="2"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>98</v>
       </c>
@@ -12420,7 +12695,7 @@
       </c>
       <c r="M268" s="2"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>12</v>
       </c>
@@ -12459,7 +12734,7 @@
       </c>
       <c r="M269" s="2"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>98</v>
       </c>
@@ -12498,7 +12773,7 @@
       </c>
       <c r="M270" s="2"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>12</v>
       </c>
@@ -12537,7 +12812,7 @@
       </c>
       <c r="M271" s="2"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>12</v>
       </c>
@@ -12576,7 +12851,7 @@
       </c>
       <c r="M272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -12615,7 +12890,7 @@
       </c>
       <c r="M273" s="2"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>12</v>
       </c>
@@ -12654,7 +12929,7 @@
       </c>
       <c r="M274" s="2"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>12</v>
       </c>
@@ -12693,7 +12968,7 @@
       </c>
       <c r="M275" s="2"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>12</v>
       </c>
@@ -12732,7 +13007,7 @@
       </c>
       <c r="M276" s="2"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>12</v>
       </c>
@@ -12771,7 +13046,7 @@
       </c>
       <c r="M277" s="2"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>12</v>
       </c>
@@ -12810,7 +13085,7 @@
       </c>
       <c r="M278" s="2"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>12</v>
       </c>
@@ -12849,7 +13124,7 @@
       </c>
       <c r="M279" s="2"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>12</v>
       </c>
@@ -12888,7 +13163,7 @@
       </c>
       <c r="M280" s="2"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>12</v>
       </c>
@@ -12927,7 +13202,7 @@
       </c>
       <c r="M281" s="2"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>12</v>
       </c>
@@ -12966,7 +13241,7 @@
       </c>
       <c r="M282" s="2"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>12</v>
       </c>
@@ -13005,7 +13280,7 @@
       </c>
       <c r="M283" s="2"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>12</v>
       </c>
@@ -13044,7 +13319,7 @@
       </c>
       <c r="M284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>12</v>
       </c>
@@ -13083,7 +13358,7 @@
       </c>
       <c r="M285" s="2"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>12</v>
       </c>
@@ -13122,7 +13397,7 @@
       </c>
       <c r="M286" s="2"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>12</v>
       </c>
@@ -13161,7 +13436,7 @@
       </c>
       <c r="M287" s="2"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>98</v>
       </c>
@@ -13200,7 +13475,7 @@
       </c>
       <c r="M288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>98</v>
       </c>
@@ -13239,7 +13514,7 @@
       </c>
       <c r="M289" s="2"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>12</v>
       </c>
@@ -13278,7 +13553,7 @@
       </c>
       <c r="M290" s="2"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>12</v>
       </c>
@@ -13317,7 +13592,7 @@
       </c>
       <c r="M291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>12</v>
       </c>
@@ -13356,7 +13631,7 @@
       </c>
       <c r="M292" s="2"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>12</v>
       </c>
@@ -13395,7 +13670,7 @@
       </c>
       <c r="M293" s="2"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>12</v>
       </c>
@@ -13434,7 +13709,7 @@
       </c>
       <c r="M294" s="2"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>12</v>
       </c>
@@ -13473,7 +13748,7 @@
       </c>
       <c r="M295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
@@ -13512,7 +13787,7 @@
       </c>
       <c r="M296" s="2"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>12</v>
       </c>
@@ -13551,7 +13826,7 @@
       </c>
       <c r="M297" s="2"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>12</v>
       </c>
@@ -13590,7 +13865,7 @@
       </c>
       <c r="M298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>12</v>
       </c>
@@ -13629,7 +13904,7 @@
       </c>
       <c r="M299" s="2"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -13668,7 +13943,7 @@
       </c>
       <c r="M300" s="2"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>12</v>
       </c>
@@ -13707,7 +13982,7 @@
       </c>
       <c r="M301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="1" t="s">
         <v>13</v>
@@ -13744,7 +14019,7 @@
       </c>
       <c r="M302" s="2"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>12</v>
       </c>
@@ -13783,7 +14058,7 @@
       </c>
       <c r="M303" s="2"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>12</v>
       </c>
@@ -13822,7 +14097,7 @@
       </c>
       <c r="M304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>12</v>
       </c>
@@ -13861,7 +14136,7 @@
       </c>
       <c r="M305" s="2"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>12</v>
       </c>
@@ -13900,7 +14175,7 @@
       </c>
       <c r="M306" s="2"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>12</v>
       </c>
@@ -13939,7 +14214,7 @@
       </c>
       <c r="M307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>12</v>
       </c>
@@ -13978,7 +14253,7 @@
       </c>
       <c r="M308" s="2"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>12</v>
       </c>
@@ -14017,7 +14292,7 @@
       </c>
       <c r="M309" s="2"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>12</v>
       </c>
@@ -14056,7 +14331,7 @@
       </c>
       <c r="M310" s="2"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
         <v>12</v>
       </c>
@@ -14095,7 +14370,7 @@
       </c>
       <c r="M311" s="2"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>12</v>
       </c>
@@ -14134,7 +14409,7 @@
       </c>
       <c r="M312" s="2"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>12</v>
       </c>
@@ -14173,7 +14448,7 @@
       </c>
       <c r="M313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>12</v>
       </c>
@@ -14212,7 +14487,7 @@
       </c>
       <c r="M314" s="2"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>12</v>
       </c>
@@ -14251,7 +14526,7 @@
       </c>
       <c r="M315" s="2"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>12</v>
       </c>
@@ -14290,7 +14565,7 @@
       </c>
       <c r="M316" s="2"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>12</v>
       </c>
@@ -14329,7 +14604,7 @@
       </c>
       <c r="M317" s="2"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
         <v>12</v>
       </c>
@@ -14368,7 +14643,7 @@
       </c>
       <c r="M318" s="2"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>12</v>
       </c>
@@ -14407,7 +14682,7 @@
       </c>
       <c r="M319" s="2"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>12</v>
       </c>
@@ -14446,7 +14721,7 @@
       </c>
       <c r="M320" s="2"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>12</v>
       </c>
@@ -14485,7 +14760,7 @@
       </c>
       <c r="M321" s="2"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>12</v>
       </c>
@@ -14524,7 +14799,7 @@
       </c>
       <c r="M322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>12</v>
       </c>
@@ -14563,7 +14838,7 @@
       </c>
       <c r="M323" s="2"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>12</v>
       </c>
@@ -14602,7 +14877,7 @@
       </c>
       <c r="M324" s="2"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>12</v>
       </c>
@@ -14641,7 +14916,7 @@
       </c>
       <c r="M325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>12</v>
       </c>
@@ -14680,7 +14955,7 @@
       </c>
       <c r="M326" s="2"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>12</v>
       </c>
@@ -14719,7 +14994,7 @@
       </c>
       <c r="M327" s="2"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>12</v>
       </c>
@@ -14758,7 +15033,7 @@
       </c>
       <c r="M328" s="2"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>12</v>
       </c>
@@ -14797,7 +15072,7 @@
       </c>
       <c r="M329" s="2"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>12</v>
       </c>
@@ -14836,7 +15111,7 @@
       </c>
       <c r="M330" s="2"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>12</v>
       </c>
@@ -14875,7 +15150,7 @@
       </c>
       <c r="M331" s="2"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>12</v>
       </c>
@@ -14914,7 +15189,7 @@
       </c>
       <c r="M332" s="2"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>12</v>
       </c>
@@ -14953,7 +15228,7 @@
       </c>
       <c r="M333" s="2"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>12</v>
       </c>
@@ -14992,7 +15267,7 @@
       </c>
       <c r="M334" s="2"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>12</v>
       </c>
@@ -15031,7 +15306,7 @@
       </c>
       <c r="M335" s="2"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>12</v>
       </c>
@@ -15070,7 +15345,7 @@
       </c>
       <c r="M336" s="2"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>12</v>
       </c>
@@ -15109,7 +15384,7 @@
       </c>
       <c r="M337" s="2"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>12</v>
       </c>
@@ -15148,7 +15423,7 @@
       </c>
       <c r="M338" s="2"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>98</v>
       </c>
@@ -15187,7 +15462,7 @@
       </c>
       <c r="M339" s="2"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>12</v>
       </c>
@@ -15226,7 +15501,7 @@
       </c>
       <c r="M340" s="2"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>12</v>
       </c>
@@ -15265,7 +15540,7 @@
       </c>
       <c r="M341" s="2"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>12</v>
       </c>
@@ -15304,7 +15579,7 @@
       </c>
       <c r="M342" s="2"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>12</v>
       </c>
@@ -15343,7 +15618,7 @@
       </c>
       <c r="M343" s="2"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>12</v>
       </c>
@@ -15382,7 +15657,7 @@
       </c>
       <c r="M344" s="2"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>12</v>
       </c>
@@ -15421,7 +15696,7 @@
       </c>
       <c r="M345" s="2"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>98</v>
       </c>
@@ -15460,7 +15735,7 @@
       </c>
       <c r="M346" s="2"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>12</v>
       </c>
@@ -15499,7 +15774,7 @@
       </c>
       <c r="M347" s="2"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>98</v>
       </c>
@@ -15538,7 +15813,7 @@
       </c>
       <c r="M348" s="2"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>98</v>
       </c>
@@ -15577,7 +15852,7 @@
       </c>
       <c r="M349" s="2"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>12</v>
       </c>
@@ -15616,7 +15891,7 @@
       </c>
       <c r="M350" s="2"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
         <v>12</v>
       </c>
@@ -15655,7 +15930,7 @@
       </c>
       <c r="M351" s="2"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>98</v>
       </c>
@@ -15694,7 +15969,7 @@
       </c>
       <c r="M352" s="2"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>12</v>
       </c>
@@ -15733,7 +16008,7 @@
       </c>
       <c r="M353" s="2"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>12</v>
       </c>
@@ -15772,7 +16047,7 @@
       </c>
       <c r="M354" s="2"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>12</v>
       </c>
@@ -15811,7 +16086,7 @@
       </c>
       <c r="M355" s="2"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>12</v>
       </c>
@@ -15850,7 +16125,7 @@
       </c>
       <c r="M356" s="2"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>12</v>
       </c>
@@ -15889,7 +16164,7 @@
       </c>
       <c r="M357" s="2"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>12</v>
       </c>
@@ -15928,7 +16203,7 @@
       </c>
       <c r="M358" s="2"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>12</v>
       </c>
@@ -15967,7 +16242,7 @@
       </c>
       <c r="M359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>12</v>
       </c>
@@ -16006,7 +16281,7 @@
       </c>
       <c r="M360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>12</v>
       </c>
@@ -16045,7 +16320,7 @@
       </c>
       <c r="M361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>12</v>
       </c>
@@ -16084,7 +16359,7 @@
       </c>
       <c r="M362" s="2"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>12</v>
       </c>
@@ -16123,7 +16398,7 @@
       </c>
       <c r="M363" s="2"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>98</v>
       </c>
@@ -16162,7 +16437,7 @@
       </c>
       <c r="M364" s="2"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>98</v>
       </c>
@@ -16201,7 +16476,7 @@
       </c>
       <c r="M365" s="2"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>12</v>
       </c>
@@ -16240,654 +16515,660 @@
       </c>
       <c r="M366" s="2"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{005A007D-00DC-4F62-B17A-00F900D500E0}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/indeks-standar-pencemaran-udara-(ispu)-tahun-2022-(1766459379253).xlsx
+++ b/indeks-standar-pencemaran-udara-(ispu)-tahun-2022-(1766459379253).xlsx
@@ -7,47 +7,13 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={00410088-00A4-49F6-9BBF-000000400097}</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" xr:uid="{00410088-00A4-49F6-9BBF-000000400097}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Unknown Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-======
-ID#AAABx8ftWik
-20230801145 Ase Ananda Putra    (2025-12-24 01:35:33)
-why man, this date is so weird?!
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1720,7 +1686,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1729,10 +1695,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1757,12 +1719,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Unknown Author" id="{1CB32660-94A1-3446-75D0-BA0F73801DEE}"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2218,18 +2174,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E2" personId="{1CB32660-94A1-3446-75D0-BA0F73801DEE}" id="{00410088-00A4-49F6-9BBF-000000400097}" done="1">
-    <text xml:space="preserve">======
-ID#AAABx8ftWik
-20230801145 Ase Ananda Putra    (2025-12-24 01:35:33)
-why man, this date is so weird?!
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
@@ -2237,7 +2181,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <selection activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2319,7 +2263,6 @@
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4"/>
     </row>
     <row r="3" ht="15">
       <c r="A3" s="1" t="s">
@@ -17154,21 +17097,5 @@
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{005A007D-00DC-4F62-B17A-00F900D500E0}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>0</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>